--- a/Data.xlsx
+++ b/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>Área de control vehicular - Vigilancia</t>
   </si>
@@ -483,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
     <col min="1" max="1" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,11 +505,14 @@
         <v>1.5</v>
       </c>
       <c r="D1" s="2">
-        <f t="shared" ref="D1:D11" si="0">+B1*C1</f>
+        <f t="shared" ref="D1:D5" si="0">+B1*C1</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -523,8 +526,11 @@
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -538,8 +544,11 @@
         <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -553,8 +562,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -568,8 +580,11 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -583,7 +598,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -597,8 +612,11 @@
         <f t="shared" ref="D7:D12" si="1">+B7*C7</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -612,8 +630,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -627,8 +648,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -642,8 +666,11 @@
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -657,8 +684,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -672,8 +702,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -686,8 +719,11 @@
       <c r="D13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -701,8 +737,11 @@
         <f t="shared" ref="D14:D20" si="2">+B14*C14</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -716,8 +755,11 @@
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -731,8 +773,11 @@
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -746,8 +791,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -761,8 +809,11 @@
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -776,8 +827,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -791,8 +845,11 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -805,8 +862,11 @@
       <c r="D21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -820,8 +880,11 @@
         <f t="shared" ref="D22:D27" si="3">+B22*C22</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -835,8 +898,11 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -850,8 +916,11 @@
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -865,8 +934,11 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -880,8 +952,11 @@
         <f>+B26*C26</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -895,8 +970,11 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -909,8 +987,11 @@
       <c r="D28" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -924,8 +1005,11 @@
         <f t="shared" ref="D29:D30" si="4">+B29*C29</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -939,13 +1023,16 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -959,8 +1046,11 @@
         <f t="shared" ref="D32:D33" si="5">+B32*C32</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
@@ -974,8 +1064,11 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -988,8 +1081,11 @@
       <c r="D34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -1003,8 +1099,11 @@
         <f t="shared" ref="D35:D39" si="6">+B35*C35</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
@@ -1018,8 +1117,11 @@
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -1033,8 +1135,11 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
@@ -1048,8 +1153,11 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1063,8 +1171,11 @@
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -1077,8 +1188,11 @@
       <c r="D40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
@@ -1092,8 +1206,11 @@
         <f t="shared" ref="D41:D43" si="7">+B41*C41</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1107,8 +1224,11 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
@@ -1122,8 +1242,11 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>39</v>
       </c>
@@ -1136,8 +1259,11 @@
       <c r="D44" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>36</v>
       </c>
@@ -1151,8 +1277,11 @@
         <f t="shared" ref="D45:D47" si="8">+B45*C45</f>
         <v>132</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
@@ -1166,8 +1295,11 @@
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
@@ -1180,6 +1312,9 @@
       <c r="D47" s="3">
         <f t="shared" si="8"/>
         <v>4</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -170,12 +170,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -191,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -202,6 +208,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,92 +508,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
+      <c r="B1" s="5">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5">
         <v>1.5</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="5">
         <f t="shared" ref="D1:D5" si="0">+B1*C1</f>
         <v>1.5</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
         <v>12.5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
         <v>18.5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
         <v>1.2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
         <v>11</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
     </row>
@@ -599,254 +612,253 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
         <v>10</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" ref="D7:D12" si="1">+B7*C7</f>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:D10" si="1">+B7*C7</f>
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
         <v>5.5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" ref="D12:D16" si="2">+B12*C12</f>
+        <v>3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:D20" si="2">+B14*C14</f>
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
         <v>1.5</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D13" s="5">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="E13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
         <v>1.5</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D14" s="5">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="E16">
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="E16" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" ref="D18:D20" si="3">+B18*C18</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -868,236 +880,238 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" ref="D22:D27" si="3">+B22*C22</f>
-        <v>5</v>
+        <f t="shared" ref="D22:D23" si="4">+B22*C22</f>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
       </c>
       <c r="C25" s="2">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:D26" si="5">+B25*C25</f>
+        <v>9</v>
+      </c>
+      <c r="E25">
         <v>6</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
       <c r="C26" s="2">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="E26">
         <v>6</v>
-      </c>
-      <c r="D26" s="2">
-        <f>+B26*C26</f>
-        <v>6</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>15</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28:D35" si="6">+B28*C28</f>
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" ref="D29:D30" si="4">+B29*C29</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
       </c>
       <c r="C30" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
       </c>
       <c r="C32" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" ref="D32:D33" si="5">+B32*C32</f>
-        <v>12</v>
+        <f>+B32*C32</f>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
       </c>
       <c r="C33" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f>+B33*C33</f>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2">
+        <f>+B34*C34</f>
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
       <c r="C35" s="2">
-        <v>6</v>
+        <f>3*B45</f>
+        <v>21</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" ref="D35:D39" si="6">+B35*C35</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
       <c r="E35">
         <v>7</v>
@@ -1105,109 +1119,109 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="E36">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" ref="D37:D43" si="7">+B37*C37</f>
+        <v>6</v>
+      </c>
+      <c r="E37">
         <v>8</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="E37">
-        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
       </c>
       <c r="C38" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>+B38*C38</f>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
       </c>
       <c r="C39" s="2">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="6"/>
-        <v>33</v>
+        <f>+B39*C39</f>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2">
+        <f>+B40*C40</f>
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2">
+        <f>+B41*C41</f>
+        <v>5</v>
+      </c>
+      <c r="E41">
         <v>2</v>
-      </c>
-      <c r="C41" s="2">
-        <v>3</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" ref="D41:D43" si="7">+B41*C41</f>
-        <v>6</v>
-      </c>
-      <c r="E41">
-        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1268,14 +1282,14 @@
         <v>36</v>
       </c>
       <c r="B45" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C45" s="2">
         <v>12</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" ref="D45:D47" si="8">+B45*C45</f>
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="E45">
         <v>9</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>Área de control vehicular - Vigilancia</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Entrevistas</t>
+  </si>
+  <si>
+    <t>Circulación</t>
   </si>
 </sst>
 </file>
@@ -197,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -215,6 +221,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,15 +503,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="1" max="1" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1059,7 +1066,7 @@
         <v>6</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1077,7 +1084,7 @@
         <v>6</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1095,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1167,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1185,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1203,7 +1210,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1221,7 +1228,7 @@
         <v>5</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1329,6 +1336,68 @@
       </c>
       <c r="E47">
         <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>12</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" ref="D48" si="9">+B48*C48</f>
+        <v>24</v>
+      </c>
+      <c r="E48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <f>SUM(D22:D49)</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D51">
+        <f>D50*C51</f>
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <f>SUM(D50:D51)</f>
+        <v>314.60000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <f>+B24*C24</f>
+        <f t="shared" ref="D24:D31" si="5">+B24*C24</f>
         <v>6</v>
       </c>
       <c r="E24" s="8">
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <f>+B25*C25</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E25" s="8">
@@ -1092,7 +1092,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="7">
-        <f>+B26*C26</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E26" s="8">
@@ -1110,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="7">
-        <f>+B27*C27</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E27" s="8">
@@ -1128,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="7">
-        <f>+B28*C28</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E28" s="8">
@@ -1146,7 +1146,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="7">
-        <f>+B29*C29</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E29" s="8">
@@ -1164,7 +1164,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="7">
-        <f>+B30*C30</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E30" s="8">
@@ -1182,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="7">
-        <f>+B31*C31</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E31" s="8">
@@ -1270,7 +1270,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="22">
-        <f t="shared" ref="D36:D38" si="5">+B36*C36</f>
+        <f t="shared" ref="D36:D38" si="6">+B36*C36</f>
         <v>6</v>
       </c>
       <c r="E36" s="23">
@@ -1288,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E37" s="23">
@@ -1307,7 +1307,7 @@
         <v>12</v>
       </c>
       <c r="D38" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="E38" s="23">
@@ -1343,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="22">
-        <f t="shared" ref="D40:D41" si="6">+B40*C40</f>
+        <f t="shared" ref="D40:D41" si="7">+B40*C40</f>
         <v>4</v>
       </c>
       <c r="E40" s="23">
@@ -1361,7 +1361,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="E41" s="23">
@@ -1432,7 +1432,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="16">
-        <f t="shared" ref="D45" si="7">+B45*C45</f>
+        <f t="shared" ref="D45" si="8">+B45*C45</f>
         <v>24</v>
       </c>
       <c r="E45" s="17">
@@ -1450,7 +1450,7 @@
         <v>12</v>
       </c>
       <c r="D46" s="19">
-        <f t="shared" ref="D46" si="8">+B46*C46</f>
+        <f t="shared" ref="D46" si="9">+B46*C46</f>
         <v>24</v>
       </c>
       <c r="E46" s="17">
@@ -1468,7 +1468,7 @@
         <v>12</v>
       </c>
       <c r="D47" s="16">
-        <f t="shared" ref="D47" si="9">+B47*C47</f>
+        <f t="shared" ref="D47" si="10">+B47*C47</f>
         <v>12</v>
       </c>
       <c r="E47" s="17">
@@ -1535,12 +1535,17 @@
       <c r="B51" s="26">
         <v>1</v>
       </c>
-      <c r="C51" s="14"/>
+      <c r="C51" s="14">
+        <f>D51</f>
+        <v>69.899999999999991</v>
+      </c>
       <c r="D51" s="14">
         <f>D53*C54</f>
         <v>69.899999999999991</v>
       </c>
-      <c r="E51" s="14"/>
+      <c r="E51" s="14">
+        <v>9</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -277,7 +277,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -342,6 +342,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,15 +630,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:E34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.42578125" style="4" customWidth="1"/>
     <col min="2" max="5" width="11.42578125" style="4"/>
-    <col min="6" max="7" width="11.42578125" style="24"/>
+    <col min="6" max="6" width="11.42578125" style="24"/>
+    <col min="7" max="7" width="11.42578125" style="28"/>
     <col min="8" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
@@ -1493,7 +1498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>29</v>
       </c>
@@ -1511,7 +1516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>38</v>
       </c>
@@ -1528,7 +1533,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>40</v>
       </c>
@@ -1547,7 +1552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>38</v>
       </c>
@@ -1564,13 +1569,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D53" s="4">
         <f>D58+D57+D56</f>
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" s="13">
         <v>0.3</v>
       </c>
@@ -1579,7 +1584,7 @@
         <v>302.89999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>44</v>
       </c>
@@ -1590,7 +1595,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
         <v>45</v>
       </c>
@@ -1601,7 +1606,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>46</v>
       </c>
@@ -1612,7 +1617,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
       <c r="C60" s="4">
@@ -1620,7 +1625,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <f>SUM(D22:D31)</f>
         <v>44</v>
@@ -1630,7 +1635,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <f>SUM(D33:D34)</f>
         <v>27</v>
@@ -1639,79 +1644,95 @@
         <f>(D34*$B$63)/$A$62</f>
         <v>0.44444444444444442</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="29">
+        <f>SUM(D22:D31)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="29">
+        <f>SUM(D33:D34)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <f>(D56*A72)/D57</f>
         <v>0.30472103004291845</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F64" s="30">
+        <f>SUM(D36:D42)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="24"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F65" s="31">
+        <f>SUM(D44:D49)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="24"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
       <c r="B67" s="24"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="24"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
       <c r="B69" s="24"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
       <c r="B70" s="24"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
       <c r="B71" s="24"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <f>(D57*A80)/D53</f>
         <v>0.18454935622317598</v>
       </c>
       <c r="B72" s="24"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
       <c r="B73" s="24"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
       <c r="B74" s="24"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
       <c r="B75" s="24"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="24"/>
       <c r="B76" s="24"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="24"/>
       <c r="B77" s="24"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="24"/>
       <c r="B78" s="24"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <f>(D58*A80)/D53</f>
         <v>0.51072961373390557</v>
@@ -1722,7 +1743,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>1</v>
       </c>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -631,7 +631,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+      <selection activeCell="A44" sqref="A44:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
